--- a/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业负债.xlsx
+++ b/data_year/zb/批发和零售业/限额以上零售业企业资产及负债/按国民经济行业分限额以上零售业企业负债.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V22"/>
+  <dimension ref="A1:V13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,1393 +543,841 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>384.3</v>
+      </c>
+      <c r="C2" t="n">
+        <v>31.5</v>
+      </c>
       <c r="D2" t="n">
-        <v>99.06100000000001</v>
+        <v>836.1</v>
       </c>
       <c r="E2" t="n">
-        <v>92.7022</v>
-      </c>
-      <c r="F2" t="inlineStr"/>
+        <v>299.1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1789.3</v>
+      </c>
       <c r="G2" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>558.7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>413.3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1435.5</v>
+      </c>
+      <c r="J2" t="n">
+        <v>543.4</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1080.7</v>
+      </c>
       <c r="L2" t="n">
-        <v>77.8642</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+        <v>6101.7</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4879</v>
+      </c>
       <c r="N2" t="n">
-        <v>1706.2</v>
+        <v>3694.3</v>
       </c>
       <c r="O2" t="n">
-        <v>78</v>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
+        <v>731.4</v>
+      </c>
+      <c r="P2" t="n">
+        <v>6503.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>789.5</v>
+      </c>
       <c r="R2" t="n">
-        <v>10.2111</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+        <v>208.4</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2604.7</v>
+      </c>
+      <c r="T2" t="n">
+        <v>113.8</v>
+      </c>
+      <c r="U2" t="n">
+        <v>120.3</v>
+      </c>
       <c r="V2" t="n">
-        <v>387.0833</v>
+        <v>302.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
+          <t>2011年</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>561.5461</v>
+      </c>
+      <c r="C3" t="n">
+        <v>45.9678</v>
+      </c>
       <c r="D3" t="n">
-        <v>130.2515</v>
+        <v>1062.0651</v>
       </c>
       <c r="E3" t="n">
-        <v>101.7779</v>
-      </c>
-      <c r="F3" t="inlineStr"/>
+        <v>332.1219</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2027.5749</v>
+      </c>
       <c r="G3" t="n">
-        <v>15.1301</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+        <v>704.106</v>
+      </c>
+      <c r="H3" t="n">
+        <v>551.9397</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1574.0166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>741.0534</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1333.9853</v>
+      </c>
       <c r="L3" t="n">
-        <v>107.2024</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+        <v>7875.2502</v>
+      </c>
+      <c r="M3" t="n">
+        <v>6363.3225</v>
+      </c>
       <c r="N3" t="n">
-        <v>1778.1739</v>
+        <v>4576.654</v>
       </c>
       <c r="O3" t="n">
-        <v>86.1144</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
+        <v>1009.7021</v>
+      </c>
+      <c r="P3" t="n">
+        <v>7687.0319</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>993.2164</v>
+      </c>
       <c r="R3" t="n">
-        <v>26.0359</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+        <v>244.5842</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2882.4443</v>
+      </c>
+      <c r="T3" t="n">
+        <v>169.7901</v>
+      </c>
+      <c r="U3" t="n">
+        <v>159.373</v>
+      </c>
       <c r="V3" t="n">
-        <v>288.2981</v>
+        <v>487.038</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
+          <t>2012年</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>590.2267399999999</v>
+      </c>
+      <c r="C4" t="n">
+        <v>62.13532</v>
+      </c>
       <c r="D4" t="n">
-        <v>161.4126</v>
+        <v>1483.51454</v>
       </c>
       <c r="E4" t="n">
-        <v>115.5226</v>
-      </c>
-      <c r="F4" t="inlineStr"/>
+        <v>417.39959</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2642.64318</v>
+      </c>
       <c r="G4" t="n">
-        <v>14.0219</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>941.97455</v>
+      </c>
+      <c r="H4" t="n">
+        <v>976.95282</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1805.31868</v>
+      </c>
+      <c r="J4" t="n">
+        <v>949.46039</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1643.63825</v>
+      </c>
       <c r="L4" t="n">
-        <v>224.2668</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+        <v>9762.67584</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7911.10174</v>
+      </c>
       <c r="N4" t="n">
-        <v>1899.4386</v>
+        <v>5161.30657</v>
       </c>
       <c r="O4" t="n">
-        <v>91.9798</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
+        <v>1339.23766</v>
+      </c>
+      <c r="P4" t="n">
+        <v>8689.30428</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1376.96051</v>
+      </c>
       <c r="R4" t="n">
-        <v>40.5309</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+        <v>308.43334</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3316.30754</v>
+      </c>
+      <c r="T4" t="n">
+        <v>193.8567</v>
+      </c>
+      <c r="U4" t="n">
+        <v>341.1</v>
+      </c>
       <c r="V4" t="n">
-        <v>267.9865</v>
+        <v>703.9820999999999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>85.18988</v>
+        <v>924.93606</v>
       </c>
       <c r="C5" t="n">
-        <v>4.42598</v>
+        <v>68.10516</v>
       </c>
       <c r="D5" t="n">
-        <v>177.3575</v>
+        <v>1897.46057</v>
       </c>
       <c r="E5" t="n">
-        <v>124.27015</v>
+        <v>483.64058</v>
       </c>
       <c r="F5" t="n">
-        <v>370.3752</v>
+        <v>2394.60605</v>
       </c>
       <c r="G5" t="n">
-        <v>168.85189</v>
+        <v>1159.37055</v>
       </c>
       <c r="H5" t="n">
-        <v>60.08278</v>
+        <v>1200.41156</v>
       </c>
       <c r="I5" t="n">
-        <v>289.75463</v>
+        <v>1372.62151</v>
       </c>
       <c r="J5" t="n">
-        <v>66.66356</v>
+        <v>1112.06634</v>
       </c>
       <c r="K5" t="n">
-        <v>89.42394</v>
+        <v>1997.18741</v>
       </c>
       <c r="L5" t="n">
-        <v>531.49661</v>
+        <v>11773.04621</v>
       </c>
       <c r="M5" t="n">
-        <v>398.2209</v>
+        <v>9554.641670000001</v>
       </c>
       <c r="N5" t="n">
-        <v>1612.87124</v>
+        <v>6249.53167</v>
       </c>
       <c r="O5" t="n">
-        <v>123.09679</v>
+        <v>1618.39416</v>
       </c>
       <c r="P5" t="n">
-        <v>2376.14669</v>
+        <v>10329.12673</v>
       </c>
       <c r="Q5" t="n">
-        <v>167.1492</v>
+        <v>1752.34768</v>
       </c>
       <c r="R5" t="n">
-        <v>39.01659</v>
+        <v>339.44022</v>
       </c>
       <c r="S5" t="n">
-        <v>679.13158</v>
+        <v>3827.87194</v>
       </c>
       <c r="T5" t="n">
-        <v>37.13768</v>
+        <v>217.16614</v>
       </c>
       <c r="U5" t="n">
-        <v>1.2494</v>
+        <v>508.45298</v>
       </c>
       <c r="V5" t="n">
-        <v>174.72812</v>
+        <v>731.55195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>154.52641</v>
+        <v>1044.01544</v>
       </c>
       <c r="C6" t="n">
-        <v>8.55287</v>
+        <v>51.8325</v>
       </c>
       <c r="D6" t="n">
-        <v>315.248</v>
+        <v>2336.03053</v>
       </c>
       <c r="E6" t="n">
-        <v>170.47618</v>
+        <v>544.74254</v>
       </c>
       <c r="F6" t="n">
-        <v>557.2030600000001</v>
+        <v>2543.41146</v>
       </c>
       <c r="G6" t="n">
-        <v>246.40454</v>
+        <v>1306.84107</v>
       </c>
       <c r="H6" t="n">
-        <v>106.0741</v>
+        <v>1606.96614</v>
       </c>
       <c r="I6" t="n">
-        <v>413.82016</v>
+        <v>1418.60946</v>
       </c>
       <c r="J6" t="n">
-        <v>120.10411</v>
+        <v>1272.53135</v>
       </c>
       <c r="K6" t="n">
-        <v>226.21835</v>
+        <v>2498.72291</v>
       </c>
       <c r="L6" t="n">
-        <v>1312.35237</v>
+        <v>14037.20117</v>
       </c>
       <c r="M6" t="n">
-        <v>1031.2011</v>
+        <v>11264.89996</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.19063</v>
+        <v>6283.94444</v>
       </c>
       <c r="O6" t="n">
-        <v>187.90107</v>
+        <v>1891.81394</v>
       </c>
       <c r="P6" t="n">
-        <v>2492.85607</v>
+        <v>10568.7082</v>
       </c>
       <c r="Q6" t="n">
-        <v>260.81242</v>
+        <v>2147.43248</v>
       </c>
       <c r="R6" t="n">
-        <v>72.38778000000001</v>
+        <v>356.3997</v>
       </c>
       <c r="S6" t="n">
-        <v>826.25954</v>
+        <v>4031.085</v>
       </c>
       <c r="T6" t="n">
-        <v>56.70129</v>
+        <v>252.28656</v>
       </c>
       <c r="U6" t="n">
-        <v>8.71482</v>
+        <v>820.5898999999999</v>
       </c>
       <c r="V6" t="n">
-        <v>162.76679</v>
+        <v>1072.21638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146.70269</v>
+        <v>1061.374</v>
       </c>
       <c r="C7" t="n">
-        <v>8.998570000000001</v>
+        <v>63.4355</v>
       </c>
       <c r="D7" t="n">
-        <v>323.8721</v>
+        <v>2496.6727</v>
       </c>
       <c r="E7" t="n">
-        <v>185.69819</v>
+        <v>608.4415</v>
       </c>
       <c r="F7" t="n">
-        <v>630.91597</v>
+        <v>2713.1349</v>
       </c>
       <c r="G7" t="n">
-        <v>272.59749</v>
+        <v>1349.2249</v>
       </c>
       <c r="H7" t="n">
-        <v>119.02582</v>
+        <v>1574.4756</v>
       </c>
       <c r="I7" t="n">
-        <v>469.17345</v>
+        <v>1439.9802</v>
       </c>
       <c r="J7" t="n">
-        <v>114.27911</v>
+        <v>1405.4405</v>
       </c>
       <c r="K7" t="n">
-        <v>341.17556</v>
+        <v>2996.1067</v>
       </c>
       <c r="L7" t="n">
-        <v>1522.88372</v>
+        <v>14856.4288</v>
       </c>
       <c r="M7" t="n">
-        <v>1128.11009</v>
+        <v>11422.6837</v>
       </c>
       <c r="N7" t="n">
-        <v>1670.17537</v>
+        <v>6678.49</v>
       </c>
       <c r="O7" t="n">
-        <v>178.37461</v>
+        <v>2081.4671</v>
       </c>
       <c r="P7" t="n">
-        <v>2814.21288</v>
+        <v>10925.1235</v>
       </c>
       <c r="Q7" t="n">
-        <v>296.06916</v>
+        <v>2373.869</v>
       </c>
       <c r="R7" t="n">
-        <v>87.60042</v>
+        <v>322.6589</v>
       </c>
       <c r="S7" t="n">
-        <v>1043.63417</v>
+        <v>3972.0801</v>
       </c>
       <c r="T7" t="n">
-        <v>55.5343</v>
+        <v>393.7659</v>
       </c>
       <c r="U7" t="n">
-        <v>6.09468</v>
+        <v>779.1169</v>
       </c>
       <c r="V7" t="n">
-        <v>134.11261</v>
+        <v>1133.2132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.9554</v>
+        <v>1197.7614</v>
       </c>
       <c r="C8" t="n">
-        <v>13.7652</v>
+        <v>75.7351</v>
       </c>
       <c r="D8" t="n">
-        <v>345.1469</v>
+        <v>2832.8708</v>
       </c>
       <c r="E8" t="n">
-        <v>197.9869</v>
+        <v>666.8873</v>
       </c>
       <c r="F8" t="n">
-        <v>669.4737</v>
+        <v>3724.8971</v>
       </c>
       <c r="G8" t="n">
-        <v>297.8359</v>
+        <v>1474.8456</v>
       </c>
       <c r="H8" t="n">
-        <v>114.8936</v>
+        <v>2209.9197</v>
       </c>
       <c r="I8" t="n">
-        <v>492.9374</v>
+        <v>2399.4738</v>
       </c>
       <c r="J8" t="n">
-        <v>135.0749</v>
+        <v>1576.0562</v>
       </c>
       <c r="K8" t="n">
-        <v>380.1569</v>
+        <v>3498.052</v>
       </c>
       <c r="L8" t="n">
-        <v>1959.9006</v>
+        <v>16239.1425</v>
       </c>
       <c r="M8" t="n">
-        <v>1500.3616</v>
+        <v>12321.2563</v>
       </c>
       <c r="N8" t="n">
-        <v>1972.8635</v>
+        <v>6745.4621</v>
       </c>
       <c r="O8" t="n">
-        <v>208.9293</v>
+        <v>2284.7804</v>
       </c>
       <c r="P8" t="n">
-        <v>3362.4122</v>
+        <v>11077.9797</v>
       </c>
       <c r="Q8" t="n">
-        <v>307.2476</v>
+        <v>2681.8314</v>
       </c>
       <c r="R8" t="n">
-        <v>97.0065</v>
+        <v>331.8361</v>
       </c>
       <c r="S8" t="n">
-        <v>1226.808</v>
+        <v>4046.1717</v>
       </c>
       <c r="T8" t="n">
-        <v>60.1387</v>
+        <v>331.9419</v>
       </c>
       <c r="U8" t="n">
-        <v>14.468</v>
+        <v>1377.6404</v>
       </c>
       <c r="V8" t="n">
-        <v>159.3687</v>
+        <v>1051.6324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>202.16495</v>
+        <v>936.006</v>
       </c>
       <c r="C9" t="n">
-        <v>20.5755</v>
+        <v>83.551</v>
       </c>
       <c r="D9" t="n">
-        <v>392.74656</v>
+        <v>2437.766</v>
       </c>
       <c r="E9" t="n">
-        <v>196.52404</v>
+        <v>629.798</v>
       </c>
       <c r="F9" t="n">
-        <v>926.79525</v>
+        <v>3326.075</v>
       </c>
       <c r="G9" t="n">
-        <v>329.93794</v>
+        <v>1491.424</v>
       </c>
       <c r="H9" t="n">
-        <v>144.2876</v>
+        <v>2854.88</v>
       </c>
       <c r="I9" t="n">
-        <v>719.01959</v>
+        <v>1926.394</v>
       </c>
       <c r="J9" t="n">
-        <v>202.05147</v>
+        <v>1627.225</v>
       </c>
       <c r="K9" t="n">
-        <v>335.70599</v>
+        <v>3586.798</v>
       </c>
       <c r="L9" t="n">
-        <v>2391.40884</v>
+        <v>16124.241</v>
       </c>
       <c r="M9" t="n">
-        <v>1988.58011</v>
+        <v>12179.477</v>
       </c>
       <c r="N9" t="n">
-        <v>2242.65367</v>
+        <v>6645.972</v>
       </c>
       <c r="O9" t="n">
-        <v>283.3321</v>
+        <v>2394.712</v>
       </c>
       <c r="P9" t="n">
-        <v>3833.79888</v>
+        <v>10735.252</v>
       </c>
       <c r="Q9" t="n">
-        <v>364.87251</v>
+        <v>2300.615</v>
       </c>
       <c r="R9" t="n">
-        <v>115.48281</v>
+        <v>439.498</v>
       </c>
       <c r="S9" t="n">
-        <v>1436.94825</v>
+        <v>3794.474</v>
       </c>
       <c r="T9" t="n">
-        <v>71.07304000000001</v>
+        <v>327.842</v>
       </c>
       <c r="U9" t="n">
-        <v>22.32095</v>
+        <v>2232.162</v>
       </c>
       <c r="V9" t="n">
-        <v>161.95147</v>
+        <v>1202.527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.8426</v>
+        <v>927.5699</v>
       </c>
       <c r="C10" t="n">
-        <v>17.034</v>
+        <v>110.9837</v>
       </c>
       <c r="D10" t="n">
-        <v>515.3861000000001</v>
+        <v>2205.808</v>
       </c>
       <c r="E10" t="n">
-        <v>259.6919</v>
+        <v>746.6184</v>
       </c>
       <c r="F10" t="n">
-        <v>1109.4085</v>
+        <v>3681.4591</v>
       </c>
       <c r="G10" t="n">
-        <v>440.9391</v>
+        <v>1695.5719</v>
       </c>
       <c r="H10" t="n">
-        <v>254.717</v>
+        <v>2835.3666</v>
       </c>
       <c r="I10" t="n">
-        <v>880.1819</v>
+        <v>2170.1993</v>
       </c>
       <c r="J10" t="n">
-        <v>408.3898</v>
+        <v>1663.283</v>
       </c>
       <c r="K10" t="n">
-        <v>552.5592</v>
+        <v>4300.0564</v>
       </c>
       <c r="L10" t="n">
-        <v>3455.9819</v>
+        <v>17029.764</v>
       </c>
       <c r="M10" t="n">
-        <v>2803.0466</v>
+        <v>12188.2636</v>
       </c>
       <c r="N10" t="n">
-        <v>2656.684</v>
+        <v>6808.9862</v>
       </c>
       <c r="O10" t="n">
-        <v>569.8198</v>
+        <v>2433.318</v>
       </c>
       <c r="P10" t="n">
-        <v>4615.5646</v>
+        <v>10997.2456</v>
       </c>
       <c r="Q10" t="n">
-        <v>489.59</v>
+        <v>2008.0544</v>
       </c>
       <c r="R10" t="n">
-        <v>123.2413</v>
+        <v>467.01</v>
       </c>
       <c r="S10" t="n">
-        <v>1836.4459</v>
+        <v>3791.1647</v>
       </c>
       <c r="T10" t="n">
-        <v>88.04300000000001</v>
+        <v>413.4202</v>
       </c>
       <c r="U10" t="n">
-        <v>62.1704</v>
+        <v>2292.332</v>
       </c>
       <c r="V10" t="n">
-        <v>203.992</v>
+        <v>1226.7141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>303.63771</v>
+        <v>942.0828</v>
       </c>
       <c r="C11" t="n">
-        <v>24.74704</v>
+        <v>95.08620000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4644</v>
+        <v>1889.9435</v>
       </c>
       <c r="E11" t="n">
-        <v>281.10111</v>
+        <v>780.8673</v>
       </c>
       <c r="F11" t="n">
-        <v>1438.92702</v>
+        <v>3203.6663</v>
       </c>
       <c r="G11" t="n">
-        <v>482.84536</v>
+        <v>1719.5454</v>
       </c>
       <c r="H11" t="n">
-        <v>309.98188</v>
+        <v>3652.9912</v>
       </c>
       <c r="I11" t="n">
-        <v>1168.08647</v>
+        <v>1952.0127</v>
       </c>
       <c r="J11" t="n">
-        <v>445.68135</v>
+        <v>1878.8195</v>
       </c>
       <c r="K11" t="n">
-        <v>754.19604</v>
+        <v>5136.1943</v>
       </c>
       <c r="L11" t="n">
-        <v>4436.15661</v>
+        <v>17736.7285</v>
       </c>
       <c r="M11" t="n">
-        <v>3559.34577</v>
+        <v>11929.4247</v>
       </c>
       <c r="N11" t="n">
-        <v>2996.4989</v>
+        <v>7633.6931</v>
       </c>
       <c r="O11" t="n">
-        <v>623.82831</v>
+        <v>2813.1606</v>
       </c>
       <c r="P11" t="n">
-        <v>5267.619</v>
+        <v>12319.0356</v>
       </c>
       <c r="Q11" t="n">
-        <v>583.0477100000001</v>
+        <v>1627.969</v>
       </c>
       <c r="R11" t="n">
-        <v>147.6772</v>
+        <v>301.1114</v>
       </c>
       <c r="S11" t="n">
-        <v>2129.8633</v>
+        <v>4146.2194</v>
       </c>
       <c r="T11" t="n">
-        <v>91.58701000000001</v>
+        <v>368.4266</v>
       </c>
       <c r="U11" t="n">
-        <v>72.51211000000001</v>
+        <v>3039.6864</v>
       </c>
       <c r="V11" t="n">
-        <v>238.71644</v>
+        <v>1373.4135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>384.3</v>
+        <v>825.5833</v>
       </c>
       <c r="C12" t="n">
-        <v>31.5</v>
+        <v>91.85809999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>836.1</v>
+        <v>2121.4092</v>
       </c>
       <c r="E12" t="n">
-        <v>299.1</v>
+        <v>929.6249</v>
       </c>
       <c r="F12" t="n">
-        <v>1789.3</v>
+        <v>3752.0609</v>
       </c>
       <c r="G12" t="n">
-        <v>558.7</v>
+        <v>1882.2375</v>
       </c>
       <c r="H12" t="n">
-        <v>413.3</v>
+        <v>5316.2391</v>
       </c>
       <c r="I12" t="n">
-        <v>1435.5</v>
+        <v>2415.6768</v>
       </c>
       <c r="J12" t="n">
-        <v>543.4</v>
+        <v>2076.9211</v>
       </c>
       <c r="K12" t="n">
-        <v>1080.7</v>
+        <v>3604.2291</v>
       </c>
       <c r="L12" t="n">
-        <v>6101.7</v>
+        <v>16540.5371</v>
       </c>
       <c r="M12" t="n">
-        <v>4879</v>
+        <v>12373.822</v>
       </c>
       <c r="N12" t="n">
-        <v>3694.3</v>
+        <v>7289.9742</v>
       </c>
       <c r="O12" t="n">
-        <v>731.4</v>
+        <v>2950.4252</v>
       </c>
       <c r="P12" t="n">
-        <v>6503.4</v>
+        <v>12498.7963</v>
       </c>
       <c r="Q12" t="n">
-        <v>789.5</v>
+        <v>1918.0083</v>
       </c>
       <c r="R12" t="n">
-        <v>208.4</v>
+        <v>329.8553</v>
       </c>
       <c r="S12" t="n">
-        <v>2604.7</v>
+        <v>4610.786</v>
       </c>
       <c r="T12" t="n">
-        <v>113.8</v>
+        <v>373.047</v>
       </c>
       <c r="U12" t="n">
-        <v>120.3</v>
+        <v>4689.791</v>
       </c>
       <c r="V12" t="n">
-        <v>302.4</v>
+        <v>1817.8344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.5461</v>
+        <v>912.3099</v>
       </c>
       <c r="C13" t="n">
-        <v>45.9678</v>
+        <v>94.6631</v>
       </c>
       <c r="D13" t="n">
-        <v>1062.0651</v>
+        <v>2308.4875</v>
       </c>
       <c r="E13" t="n">
-        <v>332.1219</v>
+        <v>1102.2207</v>
       </c>
       <c r="F13" t="n">
-        <v>2027.5749</v>
+        <v>4120.6571</v>
       </c>
       <c r="G13" t="n">
-        <v>704.106</v>
+        <v>2287.0504</v>
       </c>
       <c r="H13" t="n">
-        <v>551.9397</v>
+        <v>6200.9706</v>
       </c>
       <c r="I13" t="n">
-        <v>1574.0166</v>
+        <v>2666.9325</v>
       </c>
       <c r="J13" t="n">
-        <v>741.0534</v>
+        <v>2164.9576</v>
       </c>
       <c r="K13" t="n">
-        <v>1333.9853</v>
+        <v>4054.7925</v>
       </c>
       <c r="L13" t="n">
-        <v>7875.2502</v>
+        <v>17108.1168</v>
       </c>
       <c r="M13" t="n">
-        <v>6363.3225</v>
+        <v>12471.7805</v>
       </c>
       <c r="N13" t="n">
-        <v>4576.654</v>
+        <v>7874.8824</v>
       </c>
       <c r="O13" t="n">
-        <v>1009.7021</v>
+        <v>3395.9384</v>
       </c>
       <c r="P13" t="n">
-        <v>7687.0319</v>
+        <v>13771.7992</v>
       </c>
       <c r="Q13" t="n">
-        <v>993.2164</v>
+        <v>2063.4089</v>
       </c>
       <c r="R13" t="n">
-        <v>244.5842</v>
+        <v>372.3893</v>
       </c>
       <c r="S13" t="n">
-        <v>2882.4443</v>
+        <v>5262.7422</v>
       </c>
       <c r="T13" t="n">
-        <v>169.7901</v>
+        <v>455.7254</v>
       </c>
       <c r="U13" t="n">
-        <v>159.373</v>
+        <v>5729.1663</v>
       </c>
       <c r="V13" t="n">
-        <v>487.038</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>590.2267399999999</v>
-      </c>
-      <c r="C14" t="n">
-        <v>62.13532</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1483.51454</v>
-      </c>
-      <c r="E14" t="n">
-        <v>417.39959</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2642.64318</v>
-      </c>
-      <c r="G14" t="n">
-        <v>941.97455</v>
-      </c>
-      <c r="H14" t="n">
-        <v>976.95282</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1805.31868</v>
-      </c>
-      <c r="J14" t="n">
-        <v>949.46039</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1643.63825</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9762.67584</v>
-      </c>
-      <c r="M14" t="n">
-        <v>7911.10174</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5161.30657</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1339.23766</v>
-      </c>
-      <c r="P14" t="n">
-        <v>8689.30428</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1376.96051</v>
-      </c>
-      <c r="R14" t="n">
-        <v>308.43334</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3316.30754</v>
-      </c>
-      <c r="T14" t="n">
-        <v>193.8567</v>
-      </c>
-      <c r="U14" t="n">
-        <v>341.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>703.9820999999999</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>924.93606</v>
-      </c>
-      <c r="C15" t="n">
-        <v>68.10516</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1897.46057</v>
-      </c>
-      <c r="E15" t="n">
-        <v>483.64058</v>
-      </c>
-      <c r="F15" t="n">
-        <v>2394.60605</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1159.37055</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1200.41156</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1372.62151</v>
-      </c>
-      <c r="J15" t="n">
-        <v>1112.06634</v>
-      </c>
-      <c r="K15" t="n">
-        <v>1997.18741</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11773.04621</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9554.641670000001</v>
-      </c>
-      <c r="N15" t="n">
-        <v>6249.53167</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1618.39416</v>
-      </c>
-      <c r="P15" t="n">
-        <v>10329.12673</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1752.34768</v>
-      </c>
-      <c r="R15" t="n">
-        <v>339.44022</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3827.87194</v>
-      </c>
-      <c r="T15" t="n">
-        <v>217.16614</v>
-      </c>
-      <c r="U15" t="n">
-        <v>508.45298</v>
-      </c>
-      <c r="V15" t="n">
-        <v>731.55195</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1044.01544</v>
-      </c>
-      <c r="C16" t="n">
-        <v>51.8325</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2336.03053</v>
-      </c>
-      <c r="E16" t="n">
-        <v>544.74254</v>
-      </c>
-      <c r="F16" t="n">
-        <v>2543.41146</v>
-      </c>
-      <c r="G16" t="n">
-        <v>1306.84107</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1606.96614</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1418.60946</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1272.53135</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2498.72291</v>
-      </c>
-      <c r="L16" t="n">
-        <v>14037.20117</v>
-      </c>
-      <c r="M16" t="n">
-        <v>11264.89996</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6283.94444</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1891.81394</v>
-      </c>
-      <c r="P16" t="n">
-        <v>10568.7082</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2147.43248</v>
-      </c>
-      <c r="R16" t="n">
-        <v>356.3997</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4031.085</v>
-      </c>
-      <c r="T16" t="n">
-        <v>252.28656</v>
-      </c>
-      <c r="U16" t="n">
-        <v>820.5898999999999</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1072.21638</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1061.374</v>
-      </c>
-      <c r="C17" t="n">
-        <v>63.4355</v>
-      </c>
-      <c r="D17" t="n">
-        <v>2496.6727</v>
-      </c>
-      <c r="E17" t="n">
-        <v>608.4415</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2713.1349</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1349.2249</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1574.4756</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1439.9802</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1405.4405</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2996.1067</v>
-      </c>
-      <c r="L17" t="n">
-        <v>14856.4288</v>
-      </c>
-      <c r="M17" t="n">
-        <v>11422.6837</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6678.49</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2081.4671</v>
-      </c>
-      <c r="P17" t="n">
-        <v>10925.1235</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2373.869</v>
-      </c>
-      <c r="R17" t="n">
-        <v>322.6589</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3972.0801</v>
-      </c>
-      <c r="T17" t="n">
-        <v>393.7659</v>
-      </c>
-      <c r="U17" t="n">
-        <v>779.1169</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1133.2132</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1197.7614</v>
-      </c>
-      <c r="C18" t="n">
-        <v>75.7351</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2832.8708</v>
-      </c>
-      <c r="E18" t="n">
-        <v>666.8873</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3724.8971</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1474.8456</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2209.9197</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2399.4738</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1576.0562</v>
-      </c>
-      <c r="K18" t="n">
-        <v>3498.052</v>
-      </c>
-      <c r="L18" t="n">
-        <v>16239.1425</v>
-      </c>
-      <c r="M18" t="n">
-        <v>12321.2563</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6745.4621</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2284.7804</v>
-      </c>
-      <c r="P18" t="n">
-        <v>11077.9797</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2681.8314</v>
-      </c>
-      <c r="R18" t="n">
-        <v>331.8361</v>
-      </c>
-      <c r="S18" t="n">
-        <v>4046.1717</v>
-      </c>
-      <c r="T18" t="n">
-        <v>331.9419</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1377.6404</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1051.6324</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>936.006</v>
-      </c>
-      <c r="C19" t="n">
-        <v>83.551</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2437.766</v>
-      </c>
-      <c r="E19" t="n">
-        <v>629.798</v>
-      </c>
-      <c r="F19" t="n">
-        <v>3326.075</v>
-      </c>
-      <c r="G19" t="n">
-        <v>1491.424</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2854.88</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1926.394</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1627.225</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3586.798</v>
-      </c>
-      <c r="L19" t="n">
-        <v>16124.241</v>
-      </c>
-      <c r="M19" t="n">
-        <v>12179.477</v>
-      </c>
-      <c r="N19" t="n">
-        <v>6645.972</v>
-      </c>
-      <c r="O19" t="n">
-        <v>2394.712</v>
-      </c>
-      <c r="P19" t="n">
-        <v>10735.252</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2300.615</v>
-      </c>
-      <c r="R19" t="n">
-        <v>439.498</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3794.474</v>
-      </c>
-      <c r="T19" t="n">
-        <v>327.842</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2232.162</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1202.527</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>927.5699</v>
-      </c>
-      <c r="C20" t="n">
-        <v>110.9837</v>
-      </c>
-      <c r="D20" t="n">
-        <v>2205.808</v>
-      </c>
-      <c r="E20" t="n">
-        <v>746.6184</v>
-      </c>
-      <c r="F20" t="n">
-        <v>3681.4591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>1695.5719</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2835.3666</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2170.1993</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1663.283</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4300.0564</v>
-      </c>
-      <c r="L20" t="n">
-        <v>17029.764</v>
-      </c>
-      <c r="M20" t="n">
-        <v>12188.2636</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6808.9862</v>
-      </c>
-      <c r="O20" t="n">
-        <v>2433.318</v>
-      </c>
-      <c r="P20" t="n">
-        <v>10997.2456</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2008.0544</v>
-      </c>
-      <c r="R20" t="n">
-        <v>467.01</v>
-      </c>
-      <c r="S20" t="n">
-        <v>3791.1647</v>
-      </c>
-      <c r="T20" t="n">
-        <v>413.4202</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2292.332</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1226.7141</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>942.0828</v>
-      </c>
-      <c r="C21" t="n">
-        <v>95.08620000000001</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1889.9435</v>
-      </c>
-      <c r="E21" t="n">
-        <v>780.8673</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3203.6663</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1719.5454</v>
-      </c>
-      <c r="H21" t="n">
-        <v>3652.9912</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1952.0127</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1878.8195</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5136.1943</v>
-      </c>
-      <c r="L21" t="n">
-        <v>17736.7285</v>
-      </c>
-      <c r="M21" t="n">
-        <v>11929.4247</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7633.6931</v>
-      </c>
-      <c r="O21" t="n">
-        <v>2813.1606</v>
-      </c>
-      <c r="P21" t="n">
-        <v>12319.0356</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1627.969</v>
-      </c>
-      <c r="R21" t="n">
-        <v>301.1114</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4146.2194</v>
-      </c>
-      <c r="T21" t="n">
-        <v>368.4266</v>
-      </c>
-      <c r="U21" t="n">
-        <v>3039.6864</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1373.4135</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>825.5833</v>
-      </c>
-      <c r="C22" t="n">
-        <v>91.85809999999999</v>
-      </c>
-      <c r="D22" t="n">
-        <v>2121.4092</v>
-      </c>
-      <c r="E22" t="n">
-        <v>929.6249</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3752.0609</v>
-      </c>
-      <c r="G22" t="n">
-        <v>1882.2375</v>
-      </c>
-      <c r="H22" t="n">
-        <v>5316.2391</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2415.6768</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2076.9211</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3604.2291</v>
-      </c>
-      <c r="L22" t="n">
-        <v>16540.5371</v>
-      </c>
-      <c r="M22" t="n">
-        <v>12373.822</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7289.9742</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2950.4252</v>
-      </c>
-      <c r="P22" t="n">
-        <v>12498.7963</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1918.0083</v>
-      </c>
-      <c r="R22" t="n">
-        <v>329.8553</v>
-      </c>
-      <c r="S22" t="n">
-        <v>4610.786</v>
-      </c>
-      <c r="T22" t="n">
-        <v>373.047</v>
-      </c>
-      <c r="U22" t="n">
-        <v>4689.791</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1817.8344</v>
+        <v>2098.2721</v>
       </c>
     </row>
   </sheetData>
